--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>stu7</t>
+    <t>stu8</t>
   </si>
   <si>
-    <t>老张</t>
+    <t>老赵</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -52,8 +52,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,9 +71,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +80,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -88,14 +95,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +141,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,8 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,71 +202,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,13 +217,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,43 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,103 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,21 +411,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -446,6 +450,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -461,17 +483,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,24 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1062,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1"/>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -36,10 +36,7 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>stu8</t>
-  </si>
-  <si>
-    <t>老赵</t>
+    <t>王二妞</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -50,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,22 +62,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,28 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -132,6 +138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -140,6 +154,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,61 +184,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,181 +214,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,26 +408,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,43 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +470,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,11 +1013,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
   </cols>
@@ -1046,17 +1044,17 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="1">
+        <v>20164843</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -36,7 +36,7 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>王二妞</t>
+    <t>测试删除逻辑</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,7 +62,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,42 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,81 +204,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,13 +214,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,49 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,115 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,23 +411,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,11 +441,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,26 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1">
-        <v>20164843</v>
+        <v>20164849</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -36,7 +36,10 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>测试删除逻辑</t>
+    <t>zhao</t>
+  </si>
+  <si>
+    <t>赵老师</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -62,21 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,21 +80,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,22 +88,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,38 +97,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,9 +117,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +169,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -214,19 +217,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,25 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,133 +385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,15 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,21 +431,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +467,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -496,15 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +528,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1016,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1044,20 +1047,20 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>20164849</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -36,10 +36,7 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>zhao</t>
-  </si>
-  <si>
-    <t>赵老师</t>
+    <t>刘老根</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -65,7 +62,129 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,129 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,187 +214,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,69 +405,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,8 +426,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +472,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -516,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1013,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1047,23 +1044,23 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="1">
+        <v>20164945</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1"/>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -36,7 +36,7 @@
     <t>squad_id</t>
   </si>
   <si>
-    <t>刘老根</t>
+    <t>周星驰</t>
   </si>
   <si>
     <t>images/unnamed.jpg</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,6 +63,89 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,65 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -151,32 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,103 +214,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,79 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,6 +405,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,80 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,37 +525,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,94 +561,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1">
-        <v>20164945</v>
+        <v>20167788</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1"/>
@@ -1068,6 +1068,8 @@
     <row r="5" s="1" customFormat="1"/>
     <row r="6" s="1" customFormat="1"/>
     <row r="7" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/templateFile/importStudentTemplate.xlsx
+++ b/docs/templateFile/importStudentTemplate.xlsx
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,13 +61,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -75,85 +69,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +85,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -175,31 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,19 +214,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,13 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,145 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,9 +410,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,33 +423,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,17 +458,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,7 +501,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,10 +513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1"/>
